--- a/excel/dept_average_degree_connectivity.xlsx
+++ b/excel/dept_average_degree_connectivity.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,108 +369,100 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Broj suseda</t>
+          <t>Stepen</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Procenat</t>
+          <t>Prosecan stepen suseda</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9.222222222222221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.222222222222221</v>
+        <v>4.571428571428571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.571428571428571</v>
+        <v>6.111111111111111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.111111111111111</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4.983333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4.983333333333333</v>
+        <v>7.212121212121212</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.212121212121212</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>8.5</v>
+        <v>16.73333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>16.73333333333333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>15.31372549019608</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>15.31372549019608</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>19</v>
-      </c>
-      <c r="B13" t="n">
         <v>13.87719298245614</v>
       </c>
     </row>
